--- a/Team-Data/2007-08/11-29-2007-08.xlsx
+++ b/Team-Data/2007-08/11-29-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>-1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -816,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.857</v>
+        <v>0.846</v>
       </c>
       <c r="H3" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.381</v>
       </c>
       <c r="O3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R3" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>33.9</v>
+        <v>33.4</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="W3" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>11.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -941,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -962,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ3" t="n">
         <v>14</v>
@@ -971,22 +1038,22 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1123,16 +1190,16 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
@@ -1150,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>13</v>
@@ -1174,13 +1241,13 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
@@ -1338,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
         <v>21</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1490,16 +1557,16 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>8</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1702,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>19</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -1758,136 +1825,136 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.449</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.337</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="X8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
         <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.1</v>
+        <v>105.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP8" t="n">
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR8" t="n">
         <v>16</v>
       </c>
-      <c r="AR8" t="n">
-        <v>17</v>
-      </c>
       <c r="AS8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU8" t="n">
         <v>5</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1899,19 +1966,19 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
         <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2036,10 +2103,10 @@
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2057,13 +2124,13 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -2075,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
         <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>88.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="L10" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="P10" t="n">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.6879999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="T10" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U10" t="n">
         <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.6</v>
+        <v>108.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,22 +2297,22 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
         <v>19</v>
@@ -2260,13 +2327,13 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
@@ -2328,70 +2395,70 @@
         <v>0.441</v>
       </c>
       <c r="L11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.312</v>
+        <v>0.317</v>
       </c>
       <c r="O11" t="n">
         <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.723</v>
+        <v>0.736</v>
       </c>
       <c r="R11" t="n">
         <v>12.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V11" t="n">
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="AA11" t="n">
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD11" t="n">
         <v>2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -2406,13 +2473,13 @@
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>24</v>
@@ -2421,16 +2488,16 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
         <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2439,25 +2506,25 @@
         <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
@@ -2594,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2609,16 +2676,16 @@
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
@@ -2764,13 +2831,13 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2794,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2818,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -2850,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.8</v>
+        <v>37.1</v>
       </c>
       <c r="J14" t="n">
-        <v>80.40000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47</v>
+        <v>0.467</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="P14" t="n">
         <v>31.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.778</v>
+        <v>0.783</v>
       </c>
       <c r="R14" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.1</v>
       </c>
       <c r="V14" t="n">
         <v>16.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>105.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2958,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2979,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
         <v>23</v>
       </c>
-      <c r="AW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>24</v>
-      </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>16</v>
@@ -3000,10 +3067,10 @@
         <v>7</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>-3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
@@ -3170,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3337,7 +3404,7 @@
         <v>30</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3492,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK17" t="n">
         <v>10</v>
@@ -3513,13 +3580,13 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3674,7 +3741,7 @@
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
@@ -3698,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3710,13 +3777,13 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
         <v>10</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>10</v>
@@ -3728,10 +3795,10 @@
         <v>28</v>
       </c>
       <c r="BB18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>14</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
         <v>22</v>
@@ -3907,13 +3974,13 @@
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
@@ -4095,7 +4162,7 @@
         <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>0.286</v>
+        <v>0.308</v>
       </c>
       <c r="H21" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I21" t="n">
-        <v>34.6</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="L21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P21" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.711</v>
+        <v>0.713</v>
       </c>
       <c r="R21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="S21" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>43.9</v>
+        <v>44.5</v>
       </c>
       <c r="U21" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
       <c r="V21" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W21" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
         <v>6.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.2</v>
+        <v>95.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.199999999999999</v>
+        <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4217,40 +4284,40 @@
         <v>1</v>
       </c>
       <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
       <c r="AL21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>24</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT21" t="n">
         <v>5</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,25 +4326,25 @@
         <v>29</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4472,7 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>10</v>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4444,7 +4511,7 @@
         <v>29</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4633,25 @@
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>23</v>
@@ -4623,7 +4690,7 @@
         <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>5.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4787,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>28</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
         <v>22</v>
@@ -4945,13 +5012,13 @@
         <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>19</v>
@@ -4960,7 +5027,7 @@
         <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>25</v>
@@ -4969,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
@@ -4984,7 +5051,7 @@
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
         <v>26</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
         <v>22</v>
@@ -5127,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>24</v>
@@ -5142,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5312,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>4</v>
@@ -5345,7 +5412,7 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5491,13 +5558,13 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
         <v>2</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
@@ -5521,28 +5588,28 @@
         <v>13</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU28" t="n">
         <v>20</v>
       </c>
       <c r="AV28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>6</v>
@@ -5703,7 +5770,7 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>7.9</v>
       </c>
       <c r="AD30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE30" t="n">
         <v>3</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>4</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>3</v>
@@ -5912,7 +5979,7 @@
         <v>5</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -6037,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6052,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>7</v>
@@ -6061,16 +6128,16 @@
         <v>9</v>
       </c>
       <c r="AQ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>24</v>
@@ -6079,19 +6146,19 @@
         <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>8</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-29-2007-08</t>
+          <t>2007-11-29</t>
         </is>
       </c>
     </row>
